--- a/addresses.xlsx
+++ b/addresses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guidehouse-my.sharepoint.us/personal/atamakloe_guidehousefederal_com/Documents/Documents/Addresses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guidehouse-my.sharepoint.us/personal/atamakloe_guidehousefederal_com/Documents/Documents/Python&amp;R Scripts/Geocoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2C1DE1E8F613C8264F2C4CF9D5605BBD416E55F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFDDB17-F534-4291-A179-0DDC05CAC1BF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_2C1DE1E8F613C8264F2C4CF9D5605BBD416E55F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1B5A9E-03D7-4B73-9E1A-3204EB9B9D1E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>address</t>
   </si>
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A196"/>
+  <dimension ref="A1:A197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2003,6 +2003,11 @@
         <v>130</v>
       </c>
     </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A157" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A196">
